--- a/AnalisisDatos.xlsx
+++ b/AnalisisDatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\INF\4º\ADA\adap1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Estudios\UVA\4o curso 1\ADA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC389F25-4C7E-4533-9EAE-FED597382D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09D658D-DD8E-49B7-9649-93671758DC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{C3DD8E36-B099-4B3E-878D-B4047BB6BD03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C3DD8E36-B099-4B3E-878D-B4047BB6BD03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -126,6 +126,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>NumComp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -166,10 +191,13 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$B$1:$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>ALGORITMO: 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>NumComp</c:v>
                 </c:pt>
               </c:strCache>
@@ -233,34 +261,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>170183</c:v>
+                  <c:v>172497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>428854</c:v>
+                  <c:v>417670</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>673246</c:v>
+                  <c:v>682156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977711</c:v>
+                  <c:v>987601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1316604</c:v>
+                  <c:v>1314397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1685181</c:v>
+                  <c:v>1661050</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2062748</c:v>
+                  <c:v>2010208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2448139</c:v>
+                  <c:v>2434131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2735393</c:v>
+                  <c:v>2738740</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3117662</c:v>
+                  <c:v>3100717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,7 +296,213 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0CF3-43C7-9CE1-A0C2BA470492}"/>
+              <c16:uniqueId val="{00000000-38EA-4FC9-9E1A-67C71DD8ACA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ALGORITMO: 2 NumComp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>39443223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158132881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>354742380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>629806868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>985213507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1418606757</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1931602346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2521462430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3194401800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3940468840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38EA-4FC9-9E1A-67C71DD8ACA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ALGORITMO : 3 NumComp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>126459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>589877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>754143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>921081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1090902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1263712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1437955</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1613199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38EA-4FC9-9E1A-67C71DD8ACA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -281,11 +515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1082351615"/>
-        <c:axId val="942497903"/>
+        <c:axId val="890058752"/>
+        <c:axId val="1219786016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1082351615"/>
+        <c:axId val="890058752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,7 +562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="942497903"/>
+        <c:crossAx val="1219786016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -336,9 +570,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="942497903"/>
+        <c:axId val="1219786016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6200000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -356,6 +592,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -387,9 +637,41 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1082351615"/>
+        <c:crossAx val="890058752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -399,6 +681,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -439,7 +752,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -451,6 +764,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>NumComp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -491,11 +829,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$B$1:$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>NumAsign</c:v>
+                  <c:v>ALGORITMO: 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NumComp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -553,39 +894,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$12</c:f>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>327859</c:v>
+                  <c:v>172497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>754531</c:v>
+                  <c:v>417670</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1209256</c:v>
+                  <c:v>682156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1702721</c:v>
+                  <c:v>987601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2230614</c:v>
+                  <c:v>1314397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2788192</c:v>
+                  <c:v>1661050</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3354758</c:v>
+                  <c:v>2010208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3929149</c:v>
+                  <c:v>2434131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4532403</c:v>
+                  <c:v>2738740</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5124671</c:v>
+                  <c:v>3100717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,7 +934,213 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E3A-4B2E-9470-F0EE8BF60E0E}"/>
+              <c16:uniqueId val="{00000000-EC52-4C61-B74B-6C050E721A6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ALGORITMO: 2 NumComp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>39443223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158132881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>354742380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>629806868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>985213507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1418606757</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1931602346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2521462430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3194401800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3940468840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC52-4C61-B74B-6C050E721A6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ALGORITMO : 3 NumComp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>126459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>589877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>754143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>921081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1090902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1263712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1437955</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1613199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC52-4C61-B74B-6C050E721A6B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -606,11 +1153,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="928272607"/>
-        <c:axId val="928194575"/>
+        <c:axId val="890058752"/>
+        <c:axId val="1219786016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="928272607"/>
+        <c:axId val="890058752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="928194575"/>
+        <c:crossAx val="1219786016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -661,9 +1208,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="928194575"/>
+        <c:axId val="1219786016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="620000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -681,6 +1230,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -712,9 +1275,41 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="928272607"/>
+        <c:crossAx val="890058752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -724,6 +1319,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -764,7 +1390,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -776,6 +1402,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>NumComp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -816,11 +1467,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$B$1:$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>TiempoEmpleado</c:v>
+                  <c:v>ALGORITMO: 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NumComp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -878,39 +1532,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>750000</c:v>
+                  <c:v>172497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1650000</c:v>
+                  <c:v>417670</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2800000</c:v>
+                  <c:v>682156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3100000</c:v>
+                  <c:v>987601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5200000</c:v>
+                  <c:v>1314397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5750000</c:v>
+                  <c:v>1661050</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6950000</c:v>
+                  <c:v>2010208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7950000</c:v>
+                  <c:v>2434131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9800000</c:v>
+                  <c:v>2738740</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10100000</c:v>
+                  <c:v>3100717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +1572,213 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3346-4449-B57D-FB59CE88B317}"/>
+              <c16:uniqueId val="{00000000-EA91-4876-AF98-17708864F4DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ALGORITMO: 2 NumComp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>39443223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158132881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>354742380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>629806868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>985213507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1418606757</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1931602346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2521462430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3194401800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3940468840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA91-4876-AF98-17708864F4DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ALGORITMO : 3 NumComp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>126459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>589877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>754143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>921081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1090902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1263712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1437955</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1613199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA91-4876-AF98-17708864F4DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -931,11 +1791,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1056790111"/>
-        <c:axId val="928190255"/>
+        <c:axId val="890058752"/>
+        <c:axId val="1219786016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1056790111"/>
+        <c:axId val="890058752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +1838,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="928190255"/>
+        <c:crossAx val="1219786016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -986,7 +1846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="928190255"/>
+        <c:axId val="1219786016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,6 +1866,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1037,9 +1911,41 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056790111"/>
+        <c:crossAx val="890058752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1049,6 +1955,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1089,7 +2026,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1101,6 +2038,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>NumAsig</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1140,15 +2102,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NumComp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ALGORITMO : 1 NumAsig</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1164,7 +2118,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$19:$A$28</c:f>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1203,39 +2157,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$B$28</c:f>
+              <c:f>Sheet1!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>39493608</c:v>
+                  <c:v>330173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157654683</c:v>
+                  <c:v>743346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>354821161</c:v>
+                  <c:v>1218167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>629907759</c:v>
+                  <c:v>1712612</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>985615351</c:v>
+                  <c:v>2228408</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1419185678</c:v>
+                  <c:v>2764060</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1930445290</c:v>
+                  <c:v>3302219</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2520514401</c:v>
+                  <c:v>3915141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3188872759</c:v>
+                  <c:v>4535750</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3944201183</c:v>
+                  <c:v>5107727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,7 +2197,213 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BE9-44E3-8F0F-7121B2BDA0AA}"/>
+              <c16:uniqueId val="{00000000-9A45-4EEA-9450-D71E195DD327}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ALGORITMO : 2 NumAsig</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>78748328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>315358899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>708249514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1258012899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1968005009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2832826343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3862090775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5040283928</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6385629590</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7878875497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A45-4EEA-9450-D71E195DD327}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ALGORITMO : 3 NumAsig</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>280593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>603187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>939187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1290374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1647374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2370748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2748748</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3126748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3504748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A45-4EEA-9450-D71E195DD327}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1256,11 +2416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1057049839"/>
-        <c:axId val="942503663"/>
+        <c:axId val="890058752"/>
+        <c:axId val="1219786016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1057049839"/>
+        <c:axId val="890058752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +2463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="942503663"/>
+        <c:crossAx val="1219786016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1311,9 +2471,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="942503663"/>
+        <c:axId val="1219786016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6200000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1331,6 +2493,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1362,9 +2538,41 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1057049839"/>
+        <c:crossAx val="890058752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1374,6 +2582,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1414,7 +2653,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1426,6 +2665,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>NumAsig</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1465,15 +2729,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NumAsign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ALGORITMO : 1 NumAsig</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1489,7 +2745,110 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$19:$A$28</c:f>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>330173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>743346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1218167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1712612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2228408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2764060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3302219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3915141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4535750</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5107727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E601-43C5-86C3-725E6D08D3F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ALGORITMO : 2 NumAsig</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1533,34 +2892,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>78832130</c:v>
+                  <c:v>78748328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>314310063</c:v>
+                  <c:v>315358899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>709210096</c:v>
+                  <c:v>708249514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1259542695</c:v>
+                  <c:v>1258012899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1968509924</c:v>
+                  <c:v>1968005009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2837804580</c:v>
+                  <c:v>2832826343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3857254530</c:v>
+                  <c:v>3862090775</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5039121644</c:v>
+                  <c:v>5040283928</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6374042229</c:v>
+                  <c:v>6385629590</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7881820513</c:v>
+                  <c:v>7878875497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,7 +2927,110 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E39-403A-B786-2C0192574FA0}"/>
+              <c16:uniqueId val="{00000001-E601-43C5-86C3-725E6D08D3F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ALGORITMO : 3 NumAsig</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>280593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>603187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>939187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1290374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1647374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2370748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2748748</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3126748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3504748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E601-43C5-86C3-725E6D08D3F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1581,11 +3043,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1058111807"/>
-        <c:axId val="842510831"/>
+        <c:axId val="890058752"/>
+        <c:axId val="1219786016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1058111807"/>
+        <c:axId val="890058752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,7 +3090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="842510831"/>
+        <c:crossAx val="1219786016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1636,9 +3098,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="842510831"/>
+        <c:axId val="1219786016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="620000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1656,6 +3120,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1687,9 +3165,41 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058111807"/>
+        <c:crossAx val="890058752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1699,6 +3209,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1739,7 +3280,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1751,6 +3292,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>NumAsig</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1790,15 +3356,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TiempoEmpleado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ALGORITMO : 1 NumAsig</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1814,7 +3372,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$19:$A$28</c:f>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1853,39 +3411,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$19:$D$28</c:f>
+              <c:f>Sheet1!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>57850000</c:v>
+                  <c:v>330173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272200000</c:v>
+                  <c:v>743346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>684850000</c:v>
+                  <c:v>1218167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1238000000</c:v>
+                  <c:v>1712612</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1998400000</c:v>
+                  <c:v>2228408</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2908000000</c:v>
+                  <c:v>2764060</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4654650000</c:v>
+                  <c:v>3302219</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6335300000</c:v>
+                  <c:v>3915141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7111700000</c:v>
+                  <c:v>4535750</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9339050000</c:v>
+                  <c:v>5107727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,7 +3451,213 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F58D-436E-BF4F-F7D5C30B0BA7}"/>
+              <c16:uniqueId val="{00000000-874F-4045-A49C-3D4079E32BF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ALGORITMO : 2 NumAsig</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>78748328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>315358899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>708249514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1258012899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1968005009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2832826343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3862090775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5040283928</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6385629590</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7878875497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-874F-4045-A49C-3D4079E32BF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ALGORITMO : 3 NumAsig</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>280593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>603187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>939187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1290374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1647374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2370748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2748748</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3126748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3504748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-874F-4045-A49C-3D4079E32BF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1906,11 +3670,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1080965599"/>
-        <c:axId val="834714831"/>
+        <c:axId val="890058752"/>
+        <c:axId val="1219786016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1080965599"/>
+        <c:axId val="890058752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +3717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834714831"/>
+        <c:crossAx val="1219786016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1961,9 +3725,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="834714831"/>
+        <c:axId val="1219786016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1981,6 +3746,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2012,9 +3791,41 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1080965599"/>
+        <c:crossAx val="890058752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2024,6 +3835,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2064,7 +3906,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2076,6 +3918,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>TiempoEmp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2115,15 +3982,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NumComp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ALGORITMO : 1 TiempoEmp</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2139,7 +3998,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$35:$A$44</c:f>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2178,39 +4037,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$35:$B$44</c:f>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>126482</c:v>
+                  <c:v>1200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273920</c:v>
+                  <c:v>1650000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>429031</c:v>
+                  <c:v>2750000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>589856</c:v>
+                  <c:v>4500000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>754092</c:v>
+                  <c:v>5800000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>921036</c:v>
+                  <c:v>6400000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1090919</c:v>
+                  <c:v>7100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1263773</c:v>
+                  <c:v>8350000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1437945</c:v>
+                  <c:v>10100000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1613116</c:v>
+                  <c:v>11000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,7 +4077,213 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A17-4F9F-9D25-7D10680577C9}"/>
+              <c16:uniqueId val="{00000000-6974-4851-A662-EA0C0333D15C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ALGORITMO : 2 TiempoEmp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>78150000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>367700000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>829000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1481650000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2324200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3349050000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4564850000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5988400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7534300000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9286550000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6974-4851-A662-EA0C0333D15C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ALGORITMO : 3 TiempoEmp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$35:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8150000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8850000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6974-4851-A662-EA0C0333D15C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2231,11 +4296,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1153686303"/>
-        <c:axId val="941699983"/>
+        <c:axId val="890058752"/>
+        <c:axId val="1219786016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1153686303"/>
+        <c:axId val="890058752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,7 +4343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="941699983"/>
+        <c:crossAx val="1219786016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2286,9 +4351,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="941699983"/>
+        <c:axId val="1219786016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6200000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2306,6 +4373,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2337,9 +4418,41 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153686303"/>
+        <c:crossAx val="890058752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2349,6 +4462,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2389,7 +4533,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2401,6 +4545,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>TiempoEmp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2440,15 +4609,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NumAsign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ALGORITMO : 1 TiempoEmp</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2464,7 +4625,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$35:$A$44</c:f>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2503,39 +4664,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$35:$C$44</c:f>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>280593</c:v>
+                  <c:v>1200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>603187</c:v>
+                  <c:v>1650000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>939187</c:v>
+                  <c:v>2750000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1290374</c:v>
+                  <c:v>4500000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1647374</c:v>
+                  <c:v>5800000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004374</c:v>
+                  <c:v>6400000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2370748</c:v>
+                  <c:v>7100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2748748</c:v>
+                  <c:v>8350000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3126748</c:v>
+                  <c:v>10100000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3504748</c:v>
+                  <c:v>11000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2543,7 +4704,213 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4B76-4C54-8A20-4FD3AF7A2321}"/>
+              <c16:uniqueId val="{00000000-4889-4109-933A-D271055432E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ALGORITMO : 2 TiempoEmp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>78150000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>367700000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>829000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1481650000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2324200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3349050000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4564850000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5988400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7534300000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9286550000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4889-4109-933A-D271055432E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ALGORITMO : 3 TiempoEmp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$35:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8150000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8850000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10250000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4889-4109-933A-D271055432E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2556,11 +4923,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1082107087"/>
-        <c:axId val="834722303"/>
+        <c:axId val="890058752"/>
+        <c:axId val="1219786016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1082107087"/>
+        <c:axId val="890058752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +4970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834722303"/>
+        <c:crossAx val="1219786016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2611,9 +4978,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="834722303"/>
+        <c:axId val="1219786016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="620000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2631,6 +5000,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2662,9 +5045,41 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1082107087"/>
+        <c:crossAx val="890058752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2674,6 +5089,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2714,7 +5160,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2726,6 +5172,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>TiempoEmp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2765,15 +5236,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TiempoEmpleado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ALGORITMO : 1 TiempoEmp</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2789,7 +5252,213 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$35:$A$44</c:f>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1650000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2750000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5800000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8350000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53E3-4A7C-975A-391A575A73B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ALGORITMO : 2 TiempoEmp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>78150000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>367700000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>829000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1481650000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2324200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3349050000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4564850000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5988400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7534300000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9286550000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53E3-4A7C-975A-391A575A73B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ALGORITMO : 3 TiempoEmp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2833,34 +5502,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3600000</c:v>
+                  <c:v>1600000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6150000</c:v>
+                  <c:v>2100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10300000</c:v>
+                  <c:v>2800000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12350000</c:v>
+                  <c:v>4100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12350000</c:v>
+                  <c:v>5250000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16500000</c:v>
+                  <c:v>6500000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19950000</c:v>
+                  <c:v>8150000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21500000</c:v>
+                  <c:v>8850000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17650000</c:v>
+                  <c:v>10250000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19800000</c:v>
+                  <c:v>11250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2868,7 +5537,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9595-4A4B-BD00-0A136613E23F}"/>
+              <c16:uniqueId val="{00000002-53E3-4A7C-975A-391A575A73B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2881,11 +5550,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="929092863"/>
-        <c:axId val="931086463"/>
+        <c:axId val="890058752"/>
+        <c:axId val="1219786016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="929092863"/>
+        <c:axId val="890058752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,7 +5597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931086463"/>
+        <c:crossAx val="1219786016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2936,9 +5605,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="931086463"/>
+        <c:axId val="1219786016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2956,6 +5626,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2987,9 +5671,41 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="929092863"/>
+        <c:crossAx val="890058752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2999,6 +5715,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8045,22 +10792,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>211666</xdr:colOff>
+      <xdr:colOff>210207</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>115358</xdr:rowOff>
+      <xdr:rowOff>76857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>486833</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1058</xdr:rowOff>
+      <xdr:colOff>505810</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>153057</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="13" name="Gráfico 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1616BA2A-1057-516D-04AA-5D5F959730E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45A8EAC-A245-5E9E-2538-7AF55EDA2FBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8080,27 +10827,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>550333</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>115357</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215347</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>211666</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1057</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175592</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="14" name="Gráfico 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD8FCAC-A107-56E5-F992-7196BC882543}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BA1575-E476-441F-9CB0-5249779B11BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8116,27 +10865,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>275167</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>550334</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>527516</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>159026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="15" name="Gráfico 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58BC8827-A18F-ED4A-2272-AB49748A2041}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F837ED4F-817B-4F22-BB1F-0F15B1BEEB24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8152,27 +10903,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>147108</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>612912</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>465668</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>32808</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295602</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175591</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="16" name="Gráfico 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC780A0A-DB53-E0F0-6530-069FB85F374F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1B8371-636E-409E-9147-B8E5CCE3A310}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8188,27 +10941,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>529167</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>147107</xdr:rowOff>
+      <xdr:rowOff>124239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>303886</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>32807</xdr:rowOff>
+      <xdr:rowOff>9939</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="19" name="Gráfico 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F283FF04-23C1-1090-5D25-AECB36A1A3E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0AE7B3-839C-4C50-93C3-3F00077D8C7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8224,27 +10979,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>136524</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>529167</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22224</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>279038</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>150744</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="20" name="Gráfico 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCDE741-9956-9D0A-8334-77F7A85CF37A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA06890-EE4E-4768-906F-5924F4005CCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8260,27 +11017,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>178916</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>8355</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>604630</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>459541</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>52258</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>287319</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="21" name="Gráfico 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86680F7C-63FE-2D83-F67A-B9D8BE91C64D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D81F857-6AE2-4702-8511-E64ABC12D0EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8296,27 +11055,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>518771</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>25065</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200526</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>51581</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>303885</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18221</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="22" name="Gráfico 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB26C654-DBB1-5B36-374E-2005181089A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C7D6D0-8C57-403A-A45C-945827B12347}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8333,26 +11094,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>262354</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>25065</xdr:rowOff>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>543091</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>47291</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279037</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>159026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="23" name="Gráfico 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32EA7CC-EFAB-067D-0298-BBF3D1A16D58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1BDBF93-CA89-4226-B469-FF1B1BE503E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8370,7 +11133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8668,11 +11431,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62011B8E-48A5-41C4-869D-F6112BF86A8B}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
@@ -8704,13 +11467,13 @@
         <v>10000</v>
       </c>
       <c r="B3">
-        <v>170183</v>
+        <v>172497</v>
       </c>
       <c r="C3">
-        <v>327859</v>
+        <v>330173</v>
       </c>
       <c r="D3">
-        <v>750000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8718,10 +11481,10 @@
         <v>20000</v>
       </c>
       <c r="B4">
-        <v>428854</v>
+        <v>417670</v>
       </c>
       <c r="C4">
-        <v>754531</v>
+        <v>743346</v>
       </c>
       <c r="D4">
         <v>1650000</v>
@@ -8732,13 +11495,13 @@
         <v>30000</v>
       </c>
       <c r="B5">
-        <v>673246</v>
+        <v>682156</v>
       </c>
       <c r="C5">
-        <v>1209256</v>
+        <v>1218167</v>
       </c>
       <c r="D5">
-        <v>2800000</v>
+        <v>2750000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8746,13 +11509,13 @@
         <v>40000</v>
       </c>
       <c r="B6">
-        <v>977711</v>
+        <v>987601</v>
       </c>
       <c r="C6">
-        <v>1702721</v>
+        <v>1712612</v>
       </c>
       <c r="D6">
-        <v>3100000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8760,13 +11523,13 @@
         <v>50000</v>
       </c>
       <c r="B7">
-        <v>1316604</v>
+        <v>1314397</v>
       </c>
       <c r="C7">
-        <v>2230614</v>
+        <v>2228408</v>
       </c>
       <c r="D7">
-        <v>5200000</v>
+        <v>5800000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8774,13 +11537,13 @@
         <v>60000</v>
       </c>
       <c r="B8">
-        <v>1685181</v>
+        <v>1661050</v>
       </c>
       <c r="C8">
-        <v>2788192</v>
+        <v>2764060</v>
       </c>
       <c r="D8">
-        <v>5750000</v>
+        <v>6400000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8788,13 +11551,13 @@
         <v>70000</v>
       </c>
       <c r="B9">
-        <v>2062748</v>
+        <v>2010208</v>
       </c>
       <c r="C9">
-        <v>3354758</v>
+        <v>3302219</v>
       </c>
       <c r="D9">
-        <v>6950000</v>
+        <v>7100000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8802,13 +11565,13 @@
         <v>80000</v>
       </c>
       <c r="B10">
-        <v>2448139</v>
+        <v>2434131</v>
       </c>
       <c r="C10">
-        <v>3929149</v>
+        <v>3915141</v>
       </c>
       <c r="D10">
-        <v>7950000</v>
+        <v>8350000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8816,13 +11579,13 @@
         <v>90000</v>
       </c>
       <c r="B11">
-        <v>2735393</v>
+        <v>2738740</v>
       </c>
       <c r="C11">
-        <v>4532403</v>
+        <v>4535750</v>
       </c>
       <c r="D11">
-        <v>9800000</v>
+        <v>10100000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8830,13 +11593,13 @@
         <v>100000</v>
       </c>
       <c r="B12">
-        <v>3117662</v>
+        <v>3100717</v>
       </c>
       <c r="C12">
-        <v>5124671</v>
+        <v>5107727</v>
       </c>
       <c r="D12">
-        <v>10100000</v>
+        <v>11000000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8863,13 +11626,13 @@
         <v>10000</v>
       </c>
       <c r="B19">
-        <v>39493608</v>
+        <v>39443223</v>
       </c>
       <c r="C19">
-        <v>78832130</v>
+        <v>78748328</v>
       </c>
       <c r="D19">
-        <v>57850000</v>
+        <v>78150000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8877,13 +11640,13 @@
         <v>20000</v>
       </c>
       <c r="B20">
-        <v>157654683</v>
+        <v>158132881</v>
       </c>
       <c r="C20">
-        <v>314310063</v>
+        <v>315358899</v>
       </c>
       <c r="D20">
-        <v>272200000</v>
+        <v>367700000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8891,13 +11654,13 @@
         <v>30000</v>
       </c>
       <c r="B21">
-        <v>354821161</v>
+        <v>354742380</v>
       </c>
       <c r="C21">
-        <v>709210096</v>
+        <v>708249514</v>
       </c>
       <c r="D21">
-        <v>684850000</v>
+        <v>829000000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8905,13 +11668,13 @@
         <v>40000</v>
       </c>
       <c r="B22">
-        <v>629907759</v>
+        <v>629806868</v>
       </c>
       <c r="C22">
-        <v>1259542695</v>
+        <v>1258012899</v>
       </c>
       <c r="D22">
-        <v>1238000000</v>
+        <v>1481650000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8919,13 +11682,13 @@
         <v>50000</v>
       </c>
       <c r="B23">
-        <v>985615351</v>
+        <v>985213507</v>
       </c>
       <c r="C23">
-        <v>1968509924</v>
+        <v>1968005009</v>
       </c>
       <c r="D23">
-        <v>1998400000</v>
+        <v>2324200000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -8933,13 +11696,13 @@
         <v>60000</v>
       </c>
       <c r="B24">
-        <v>1419185678</v>
+        <v>1418606757</v>
       </c>
       <c r="C24">
-        <v>2837804580</v>
+        <v>2832826343</v>
       </c>
       <c r="D24">
-        <v>2908000000</v>
+        <v>3349050000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8947,13 +11710,13 @@
         <v>70000</v>
       </c>
       <c r="B25">
-        <v>1930445290</v>
+        <v>1931602346</v>
       </c>
       <c r="C25">
-        <v>3857254530</v>
+        <v>3862090775</v>
       </c>
       <c r="D25">
-        <v>4654650000</v>
+        <v>4564850000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8961,13 +11724,13 @@
         <v>80000</v>
       </c>
       <c r="B26">
-        <v>2520514401</v>
+        <v>2521462430</v>
       </c>
       <c r="C26">
-        <v>5039121644</v>
+        <v>5040283928</v>
       </c>
       <c r="D26">
-        <v>6335300000</v>
+        <v>5988400000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -8975,13 +11738,13 @@
         <v>90000</v>
       </c>
       <c r="B27">
-        <v>3188872759</v>
+        <v>3194401800</v>
       </c>
       <c r="C27">
-        <v>6374042229</v>
+        <v>6385629590</v>
       </c>
       <c r="D27">
-        <v>7111700000</v>
+        <v>7534300000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -8989,13 +11752,13 @@
         <v>100000</v>
       </c>
       <c r="B28">
-        <v>3944201183</v>
+        <v>3940468840</v>
       </c>
       <c r="C28">
-        <v>7881820513</v>
+        <v>7878875497</v>
       </c>
       <c r="D28">
-        <v>9339050000</v>
+        <v>9286550000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9022,13 +11785,13 @@
         <v>10000</v>
       </c>
       <c r="B35">
-        <v>126482</v>
+        <v>126459</v>
       </c>
       <c r="C35">
         <v>280593</v>
       </c>
       <c r="D35">
-        <v>3600000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -9036,13 +11799,13 @@
         <v>20000</v>
       </c>
       <c r="B36">
-        <v>273920</v>
+        <v>273926</v>
       </c>
       <c r="C36">
         <v>603187</v>
       </c>
       <c r="D36">
-        <v>6150000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -9050,13 +11813,13 @@
         <v>30000</v>
       </c>
       <c r="B37">
-        <v>429031</v>
+        <v>429087</v>
       </c>
       <c r="C37">
         <v>939187</v>
       </c>
       <c r="D37">
-        <v>10300000</v>
+        <v>2800000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -9064,13 +11827,13 @@
         <v>40000</v>
       </c>
       <c r="B38">
-        <v>589856</v>
+        <v>589877</v>
       </c>
       <c r="C38">
         <v>1290374</v>
       </c>
       <c r="D38">
-        <v>12350000</v>
+        <v>4100000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -9078,13 +11841,13 @@
         <v>50000</v>
       </c>
       <c r="B39">
-        <v>754092</v>
+        <v>754143</v>
       </c>
       <c r="C39">
         <v>1647374</v>
       </c>
       <c r="D39">
-        <v>12350000</v>
+        <v>5250000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -9092,13 +11855,13 @@
         <v>60000</v>
       </c>
       <c r="B40">
-        <v>921036</v>
+        <v>921081</v>
       </c>
       <c r="C40">
         <v>2004374</v>
       </c>
       <c r="D40">
-        <v>16500000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -9106,13 +11869,13 @@
         <v>70000</v>
       </c>
       <c r="B41">
-        <v>1090919</v>
+        <v>1090902</v>
       </c>
       <c r="C41">
         <v>2370748</v>
       </c>
       <c r="D41">
-        <v>19950000</v>
+        <v>8150000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -9120,13 +11883,13 @@
         <v>80000</v>
       </c>
       <c r="B42">
-        <v>1263773</v>
+        <v>1263712</v>
       </c>
       <c r="C42">
         <v>2748748</v>
       </c>
       <c r="D42">
-        <v>21500000</v>
+        <v>8850000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -9134,13 +11897,13 @@
         <v>90000</v>
       </c>
       <c r="B43">
-        <v>1437945</v>
+        <v>1437955</v>
       </c>
       <c r="C43">
         <v>3126748</v>
       </c>
       <c r="D43">
-        <v>17650000</v>
+        <v>10250000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -9148,13 +11911,13 @@
         <v>100000</v>
       </c>
       <c r="B44">
-        <v>1613116</v>
+        <v>1613199</v>
       </c>
       <c r="C44">
         <v>3504748</v>
       </c>
       <c r="D44">
-        <v>19800000</v>
+        <v>11250000</v>
       </c>
     </row>
   </sheetData>

--- a/AnalisisDatos.xlsx
+++ b/AnalisisDatos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Estudios\UVA\4o curso 1\ADA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\INF\4º\ADA\adap1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09D658D-DD8E-49B7-9649-93671758DC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540E3449-7708-432A-A194-C099FB63E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C3DD8E36-B099-4B3E-878D-B4047BB6BD03}"/>
+    <workbookView xWindow="2970" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{C3DD8E36-B099-4B3E-878D-B4047BB6BD03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -301,111 +301,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>ALGORITMO: 2 NumComp</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$19:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>39443223</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>158132881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>354742380</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>629806868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>985213507</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1418606757</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1931602346</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2521462430</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3194401800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3940468840</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-38EA-4FC9-9E1A-67C71DD8ACA4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>ALGORITMO : 3 NumComp</c:v>
           </c:tx>
@@ -573,8 +470,6 @@
         <c:axId val="1219786016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6200000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -683,6 +578,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28391475797800558"/>
+          <c:y val="0.87847112860892385"/>
+          <c:w val="0.51624973766541971"/>
+          <c:h val="0.12152887139107611"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -752,645 +657,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>NumComp</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ALGORITMO: 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NumComp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>172497</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>417670</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>682156</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>987601</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1314397</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1661050</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2010208</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2434131</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2738740</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100717</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC52-4C61-B74B-6C050E721A6B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>ALGORITMO: 2 NumComp</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$19:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>39443223</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>158132881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>354742380</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>629806868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>985213507</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1418606757</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1931602346</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2521462430</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3194401800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3940468840</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC52-4C61-B74B-6C050E721A6B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>ALGORITMO : 3 NumComp</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$35:$B$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>126459</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>273926</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>429087</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>589877</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>754143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>921081</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1090902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1263712</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1437955</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1613199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC52-4C61-B74B-6C050E721A6B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="890058752"/>
-        <c:axId val="1219786016"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="890058752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1219786016"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1219786016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="620000000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="890058752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="tenThousands"/>
-          <c:dispUnitsLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1957,6 +1224,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31474389855557644"/>
+          <c:y val="0.82291557305336838"/>
+          <c:w val="0.46019675479710914"/>
+          <c:h val="0.14004738990959464"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2023,10 +1300,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2202,111 +1479,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>ALGORITMO : 2 NumAsig</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$19:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>78748328</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>315358899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>708249514</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1258012899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1968005009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2832826343</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3862090775</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5040283928</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6385629590</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7878875497</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9A45-4EEA-9450-D71E195DD327}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>ALGORITMO : 3 NumAsig</c:v>
           </c:tx>
@@ -2474,8 +1648,6 @@
         <c:axId val="1219786016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6200000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2584,6 +1756,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31564577216841955"/>
+          <c:y val="0.86458223972003501"/>
+          <c:w val="0.41643538122362322"/>
+          <c:h val="0.10763998250218723"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2650,637 +1832,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>NumAsig</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>ALGORITMO : 1 NumAsig</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>330173</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>743346</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1218167</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1712612</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2228408</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2764060</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3302219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3915141</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4535750</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5107727</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E601-43C5-86C3-725E6D08D3F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>ALGORITMO : 2 NumAsig</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$19:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>78748328</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>315358899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>708249514</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1258012899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1968005009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2832826343</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3862090775</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5040283928</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6385629590</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7878875497</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E601-43C5-86C3-725E6D08D3F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>ALGORITMO : 3 NumAsig</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$35:$C$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>280593</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>603187</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>939187</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1290374</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1647374</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2004374</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2370748</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2748748</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3126748</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3504748</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E601-43C5-86C3-725E6D08D3F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="890058752"/>
-        <c:axId val="1219786016"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="890058752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1219786016"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1219786016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="620000000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="890058752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="tenThousands"/>
-          <c:dispUnitsLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3837,6 +2392,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35495048115109301"/>
+          <c:y val="0.81828594342373873"/>
+          <c:w val="0.41082042279752706"/>
+          <c:h val="0.16782516768737238"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3903,10 +2468,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4082,111 +2647,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>ALGORITMO : 2 TiempoEmp</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$19:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>78150000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>367700000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>829000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1481650000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2324200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3349050000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4564850000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5988400000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7534300000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9286550000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6974-4851-A662-EA0C0333D15C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>ALGORITMO : 3 TiempoEmp</c:v>
           </c:tx>
@@ -4354,8 +2816,6 @@
         <c:axId val="1219786016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6200000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4464,6 +2924,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28714970057232797"/>
+          <c:y val="0.85995261009040536"/>
+          <c:w val="0.552037191370647"/>
+          <c:h val="0.10763998250218723"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4530,637 +3000,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>TiempoEmp</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>ALGORITMO : 1 TiempoEmp</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1650000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2750000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4500000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5800000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6400000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8350000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4889-4109-933A-D271055432E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>ALGORITMO : 2 TiempoEmp</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$19:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>78150000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>367700000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>829000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1481650000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2324200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3349050000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4564850000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5988400000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7534300000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9286550000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4889-4109-933A-D271055432E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>ALGORITMO : 3 TiempoEmp</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$35:$D$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2100000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2800000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5250000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6500000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8150000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8850000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10250000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11250000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4889-4109-933A-D271055432E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="890058752"/>
-        <c:axId val="1219786016"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="890058752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1219786016"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1219786016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="620000000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="890058752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="tenThousands"/>
-          <c:dispUnitsLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5640,14 +3483,16 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="00000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5717,6 +3562,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30680205940804178"/>
+          <c:y val="0.83217483231262757"/>
+          <c:w val="0.48185019552881192"/>
+          <c:h val="0.14930664916885389"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6023,126 +3878,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8724,1554 +6459,6 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10792,15 +6979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>210207</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76857</xdr:rowOff>
+      <xdr:colOff>591207</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>505810</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>153057</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281693</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>59002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10828,22 +7015,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>215347</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:colOff>590501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>510950</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175592</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76177</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Gráfico 13">
+        <xdr:cNvPr id="15" name="Gráfico 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BA1575-E476-441F-9CB0-5249779B11BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F837ED4F-817B-4F22-BB1F-0F15B1BEEB24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10865,23 +7052,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>231913</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>343971</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>527516</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>159026</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>26660</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>59124</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Gráfico 14">
+        <xdr:cNvPr id="16" name="Gráfico 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F837ED4F-817B-4F22-BB1F-0F15B1BEEB24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1B8371-636E-409E-9147-B8E5CCE3A310}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10903,23 +7090,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>612912</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>349819</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:rowOff>179072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295602</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>175591</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>32508</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67895</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Gráfico 15">
+        <xdr:cNvPr id="20" name="Gráfico 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1B8371-636E-409E-9147-B8E5CCE3A310}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA06890-EE4E-4768-906F-5924F4005CCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10941,23 +7128,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>111571</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
+      <xdr:rowOff>170501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>303886</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>399378</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>9939</xdr:rowOff>
+      <xdr:rowOff>56201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Gráfico 18">
+        <xdr:cNvPr id="21" name="Gráfico 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0AE7B3-839C-4C50-93C3-3F00077D8C7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D81F857-6AE2-4702-8511-E64ABC12D0EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10979,130 +7166,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>596348</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>279038</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>150744</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Gráfico 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA06890-EE4E-4768-906F-5924F4005CCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>604630</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114495</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:rowOff>187354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>287319</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>183874</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Gráfico 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D81F857-6AE2-4702-8511-E64ABC12D0EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
+      <xdr:colOff>402302</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>132521</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>303885</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>18221</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name="Gráfico 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C7D6D0-8C57-403A-A45C-945827B12347}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>596348</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>279037</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>159026</xdr:rowOff>
+      <xdr:rowOff>76177</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11123,7 +7196,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11133,7 +7206,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11431,11 +7504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62011B8E-48A5-41C4-869D-F6112BF86A8B}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>

--- a/AnalisisDatos.xlsx
+++ b/AnalisisDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\INF\4º\ADA\adap1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540E3449-7708-432A-A194-C099FB63E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA42451-6DFD-448A-939C-432FE2D6C43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2970" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{C3DD8E36-B099-4B3E-878D-B4047BB6BD03}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>ALGORITMO: 1</t>
   </si>
@@ -57,6 +57,27 @@
   </si>
   <si>
     <t>ALGORITMO: 3</t>
+  </si>
+  <si>
+    <t>Constante Comp</t>
+  </si>
+  <si>
+    <t>Constante Asig</t>
+  </si>
+  <si>
+    <t>Constante Tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Aprox (3 x n1.2)</t>
+  </si>
+  <si>
+    <t>Aprox 3 x n1.3</t>
+  </si>
+  <si>
+    <t>Aprox 3 x n1.4</t>
   </si>
 </sst>
 </file>
@@ -3638,6 +3659,1656 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Aprox </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" baseline="30000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>1.2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NumComp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>172497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>417670</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>682156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>987601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1314397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1661050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2434131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2738740</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9851-498F-91CB-609BA087F508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aprox (3 x n1.2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$49:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>189287.20334405801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>434867.79820661678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>707402.7770369607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>999063.84888224653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1305825.8449441856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1625184.8126053824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1955414.821699155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2295245.9994960865</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2643700.5783746336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2999999.9999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9851-498F-91CB-609BA087F508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="679252912"/>
+        <c:axId val="674391136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="679252912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674391136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="674391136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679252912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Aprox </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="30000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>1.3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NumComp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$19:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>172497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>417670</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>682156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>987601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1314397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1661050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2434131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2738740</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F62-4A4D-9471-52812F532938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aprox 3 x n1.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$19:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$49:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>162847.77552537972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400978.25812743546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>679265.35050157213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>987324.28473273688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1319601.608309743</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1672547.4828975725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2043663.0016654094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2431077.5546169467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2833329.5613246765</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3249240.2958230102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F62-4A4D-9471-52812F532938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="701503440"/>
+        <c:axId val="321204832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="701503440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321204832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="321204832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701503440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Aprox </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="30000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>1.4</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NumComp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>172497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>417670</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>682156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>987601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1314397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1661050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2434131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2738740</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D28-4F7B-B101-37F1C02A7D02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aprox 3 x n1.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$49:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>140651.26335655054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>371180.90931833972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>654807.12151639897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>979552.2923468512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1338756.6573703072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1728046.353742633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2144277.0305309533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2585053.9975347864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3048478.5998804444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3533000.0000000019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D28-4F7B-B101-37F1C02A7D02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="679233712"/>
+        <c:axId val="662463248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="679233712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662463248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="662463248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679233712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3878,6 +5549,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6974,20 +8765,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>591207</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>173302</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600524</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>281693</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>59002</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>291010</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106854</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7014,16 +10353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590501</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187354</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29717</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>340135</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76177</xdr:rowOff>
+      <xdr:rowOff>122359</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7052,16 +10391,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>343971</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>173424</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>478630</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>26660</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>59124</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>165977</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>108245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7090,16 +10429,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>349819</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>179072</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>473679</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>32508</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161026</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>67895</xdr:rowOff>
+      <xdr:rowOff>105370</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7128,16 +10467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>111571</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>170501</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>417937</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>162667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>399378</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>56201</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>81155</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54931</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7166,16 +10505,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114495</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>369201</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>187354</xdr:rowOff>
+      <xdr:rowOff>94410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>402302</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76177</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>32419</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178229</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7197,6 +10536,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198614</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>58561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>98872</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>6380</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686EC07A-F051-4847-2C20-1CAD8D7D626B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160399</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>65809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>216477</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>137061</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B0886C-8C76-E6C2-4CC0-9D5444038D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>362755</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>65809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>78088</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>137061</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C631E8-DF94-73BF-97C1-CFCD9CCD64A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7502,10 +10949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62011B8E-48A5-41C4-869D-F6112BF86A8B}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7514,14 +10961,18 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7534,8 +10985,17 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -7548,8 +11008,20 @@
       <c r="D3">
         <v>1200000</v>
       </c>
+      <c r="E3">
+        <f>B3/(A3^1.3)</f>
+        <v>1.0883824905079968</v>
+      </c>
+      <c r="F3">
+        <f>C3/(A3^1.3)</f>
+        <v>2.0832507929905848</v>
+      </c>
+      <c r="G3">
+        <f>D3/(A3^1.3)</f>
+        <v>7.5714881337623048</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20000</v>
       </c>
@@ -7562,8 +11034,20 @@
       <c r="D4">
         <v>1650000</v>
       </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E12" si="0">B4/(A4^1.3)</f>
+        <v>1.0702723060451058</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F12" si="1">C4/(A4^1.3)</f>
+        <v>1.9048115440644653</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="2">D4/(A4^1.3)</f>
+        <v>4.2280970741839834</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30000</v>
       </c>
@@ -7576,8 +11060,20 @@
       <c r="D5">
         <v>2750000</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.0318725804024032</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.8426769326239956</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>4.1598250196532884</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40000</v>
       </c>
@@ -7590,8 +11086,20 @@
       <c r="D6">
         <v>4500000</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.0277879752291212</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.7823007670436704</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>4.6831117916355351</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50000</v>
       </c>
@@ -7604,8 +11112,20 @@
       <c r="D7">
         <v>5800000</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.0234474624730787</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.7351367303445677</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>4.5161357507236071</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60000</v>
       </c>
@@ -7618,8 +11138,20 @@
       <c r="D8">
         <v>6400000</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.0204367244888084</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.6980514329433405</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>3.9317269418309948</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70000</v>
       </c>
@@ -7632,8 +11164,20 @@
       <c r="D9">
         <v>7100000</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.010679705174877</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.6602688504586973</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>3.5696932390785565</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -7646,8 +11190,20 @@
       <c r="D10">
         <v>8350000</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.0287905450610282</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1.6547425111387919</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>3.529144919176324</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90000</v>
       </c>
@@ -7660,8 +11216,20 @@
       <c r="D11">
         <v>10100000</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.99319732812314809</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1.6448785868810363</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>3.6627401703132811</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100000</v>
       </c>
@@ -7674,13 +11242,39 @@
       <c r="D12">
         <v>11000000</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.98053280996043157</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1.6152050986338855</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>3.4785054261852171</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>AVERAGE(E3:E12)</f>
+        <v>1.0275399927466</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(F3:F12)</f>
+        <v>1.7621323247123037</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(G3:G12)</f>
+        <v>4.3330468466543088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -7693,8 +11287,17 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -7707,8 +11310,20 @@
       <c r="D19">
         <v>78150000</v>
       </c>
+      <c r="E19">
+        <f>B19/(A19^2)</f>
+        <v>0.39443222999999999</v>
+      </c>
+      <c r="F19">
+        <f>C19/(A19^2)</f>
+        <v>0.78748328000000001</v>
+      </c>
+      <c r="G19">
+        <f>D19/(A19^2)</f>
+        <v>0.78149999999999997</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20000</v>
       </c>
@@ -7721,8 +11336,20 @@
       <c r="D20">
         <v>367700000</v>
       </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E28" si="3">B20/(A20^2)</f>
+        <v>0.39533220250000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F28" si="4">C20/(A20^2)</f>
+        <v>0.78839724749999995</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G28" si="5">D20/(A20^2)</f>
+        <v>0.91925000000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30000</v>
       </c>
@@ -7735,8 +11362,20 @@
       <c r="D21">
         <v>829000000</v>
       </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>0.39415820000000001</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>0.7869439044444444</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>0.9211111111111111</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>40000</v>
       </c>
@@ -7749,8 +11388,20 @@
       <c r="D22">
         <v>1481650000</v>
       </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>0.39362929250000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>0.78625806187500002</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>0.92603124999999997</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50000</v>
       </c>
@@ -7763,8 +11414,20 @@
       <c r="D23">
         <v>2324200000</v>
       </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0.39408540279999998</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>0.78720200360000003</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>0.92967999999999995</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>60000</v>
       </c>
@@ -7777,8 +11440,20 @@
       <c r="D24">
         <v>3349050000</v>
       </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.39405743250000003</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>0.78689620638888891</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>0.93029166666666663</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>70000</v>
       </c>
@@ -7791,8 +11466,20 @@
       <c r="D25">
         <v>4564850000</v>
       </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.39420456040816326</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>0.78818179081632656</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>0.93160204081632658</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>80000</v>
       </c>
@@ -7805,8 +11492,20 @@
       <c r="D26">
         <v>5988400000</v>
       </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.39397850468750001</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>0.78754436375000003</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>0.93568750000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>90000</v>
       </c>
@@ -7819,8 +11518,20 @@
       <c r="D27">
         <v>7534300000</v>
       </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.39437059259259261</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>0.78834933209876545</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>0.93016049382716048</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100000</v>
       </c>
@@ -7833,13 +11544,39 @@
       <c r="D28">
         <v>9286550000</v>
       </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0.39404688399999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>0.78788754969999997</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>0.92865500000000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f>AVERAGE(E19:E28)</f>
+        <v>0.39422953019882556</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(F19:F28)</f>
+        <v>0.78751437401734259</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(G19:G28)</f>
+        <v>0.91339690624212655</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -7852,8 +11589,17 @@
       <c r="D34" t="s">
         <v>4</v>
       </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10000</v>
       </c>
@@ -7866,8 +11612,19 @@
       <c r="D35">
         <v>1600000</v>
       </c>
+      <c r="E35">
+        <f>B35/(A35*LOG10(A35))</f>
+        <v>3.1614749999999998</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <f>D35/(A35*LOG10(A35))</f>
+        <v>40</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20000</v>
       </c>
@@ -7880,8 +11637,20 @@
       <c r="D36">
         <v>2100000</v>
       </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E44" si="6">B36/(A36*LOG10(A36))</f>
+        <v>3.1844232692652037</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F44" si="7">C36/(A36*LOG10(A36))</f>
+        <v>7.0121226846603477</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G44" si="8">D36/(A36*LOG10(A36))</f>
+        <v>24.412756968878192</v>
+      </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>30000</v>
       </c>
@@ -7894,8 +11663,20 @@
       <c r="D37">
         <v>2800000</v>
       </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>3.194664425253674</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>6.9924917267610587</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="8"/>
+        <v>20.846728963381057</v>
+      </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>40000</v>
       </c>
@@ -7908,8 +11689,20 @@
       <c r="D38">
         <v>4100000</v>
       </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>3.2044182448270631</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>7.0097630323787445</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="8"/>
+        <v>22.272634470899796</v>
+      </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50000</v>
       </c>
@@ -7922,8 +11715,20 @@
       <c r="D39">
         <v>5250000</v>
       </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>3.2098225751775709</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>7.0116387143559979</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="8"/>
+        <v>22.34532246494663</v>
+      </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>60000</v>
       </c>
@@ -7936,8 +11741,20 @@
       <c r="D40">
         <v>6500000</v>
       </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>3.2128221137343487</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>6.9914558126746416</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="8"/>
+        <v>22.672646313704512</v>
+      </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>70000</v>
       </c>
@@ -7950,8 +11767,20 @@
       <c r="D41">
         <v>8150000</v>
       </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>3.2165116488888281</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="7"/>
+        <v>6.9901224478274777</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="8"/>
+        <v>24.030178639734778</v>
+      </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>80000</v>
       </c>
@@ -7964,8 +11793,20 @@
       <c r="D42">
         <v>8850000</v>
       </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>3.2217234523348259</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="7"/>
+        <v>7.0076931264073208</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="8"/>
+        <v>22.562302607843566</v>
+      </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>90000</v>
       </c>
@@ -7978,8 +11819,20 @@
       <c r="D43">
         <v>10250000</v>
       </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>3.224968851915555</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>7.0125038042144974</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="8"/>
+        <v>22.988153824100504</v>
+      </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>100000</v>
       </c>
@@ -7991,6 +11844,348 @@
       </c>
       <c r="D44">
         <v>11250000</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>3.2263980000000001</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="7"/>
+        <v>7.0094960000000004</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="8"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f>AVERAGE(E35:E44)</f>
+        <v>3.2057227581397072</v>
+      </c>
+      <c r="F45">
+        <f>AVERAGE(F35:F44)</f>
+        <v>7.0041430388088983</v>
+      </c>
+      <c r="G45">
+        <f>AVERAGE(G35:G44)</f>
+        <v>24.463072425348905</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>3*(A3^1.2)</f>
+        <v>189287.20334405801</v>
+      </c>
+      <c r="B49">
+        <f>1.0275*(A3^1.3)</f>
+        <v>162847.77552537972</v>
+      </c>
+      <c r="C49">
+        <f>0.3533*(A3^1.4)</f>
+        <v>140651.26335655054</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>3*(A4^1.2)</f>
+        <v>434867.79820661678</v>
+      </c>
+      <c r="B50">
+        <f>1.0275*(A4^1.3)</f>
+        <v>400978.25812743546</v>
+      </c>
+      <c r="C50">
+        <f>0.3533*(A4^1.4)</f>
+        <v>371180.90931833972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>3*(A5^1.2)</f>
+        <v>707402.7770369607</v>
+      </c>
+      <c r="B51">
+        <f>1.0275*(A5^1.3)</f>
+        <v>679265.35050157213</v>
+      </c>
+      <c r="C51">
+        <f>0.3533*(A5^1.4)</f>
+        <v>654807.12151639897</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>3*(A6^1.2)</f>
+        <v>999063.84888224653</v>
+      </c>
+      <c r="B52">
+        <f>1.0275*(A6^1.3)</f>
+        <v>987324.28473273688</v>
+      </c>
+      <c r="C52">
+        <f>0.3533*(A6^1.4)</f>
+        <v>979552.2923468512</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>3*(A7^1.2)</f>
+        <v>1305825.8449441856</v>
+      </c>
+      <c r="B53">
+        <f>1.0275*(A7^1.3)</f>
+        <v>1319601.608309743</v>
+      </c>
+      <c r="C53">
+        <f>0.3533*(A7^1.4)</f>
+        <v>1338756.6573703072</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>3*(A8^1.2)</f>
+        <v>1625184.8126053824</v>
+      </c>
+      <c r="B54">
+        <f>1.0275*(A8^1.3)</f>
+        <v>1672547.4828975725</v>
+      </c>
+      <c r="C54">
+        <f>0.3533*(A8^1.4)</f>
+        <v>1728046.353742633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>3*(A9^1.2)</f>
+        <v>1955414.821699155</v>
+      </c>
+      <c r="B55">
+        <f>1.0275*(A9^1.3)</f>
+        <v>2043663.0016654094</v>
+      </c>
+      <c r="C55">
+        <f>0.3533*(A9^1.4)</f>
+        <v>2144277.0305309533</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>3*(A10^1.2)</f>
+        <v>2295245.9994960865</v>
+      </c>
+      <c r="B56">
+        <f>1.0275*(A10^1.3)</f>
+        <v>2431077.5546169467</v>
+      </c>
+      <c r="C56">
+        <f>0.3533*(A10^1.4)</f>
+        <v>2585053.9975347864</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>3*(A11^1.2)</f>
+        <v>2643700.5783746336</v>
+      </c>
+      <c r="B57">
+        <f>1.0275*(A11^1.3)</f>
+        <v>2833329.5613246765</v>
+      </c>
+      <c r="C57">
+        <f>0.3533*(A11^1.4)</f>
+        <v>3048478.5998804444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>3*(A12^1.2)</f>
+        <v>2999999.9999999986</v>
+      </c>
+      <c r="B58">
+        <f>1.0275*(A12^1.3)</f>
+        <v>3249240.2958230102</v>
+      </c>
+      <c r="C58">
+        <f>0.3533*(A12^1.4)</f>
+        <v>3533000.0000000019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>B3/(A3^1.2)</f>
+        <v>2.7338932101996463</v>
+      </c>
+      <c r="B62">
+        <f>B3/(A3^1.3)</f>
+        <v>1.0883824905079968</v>
+      </c>
+      <c r="C62">
+        <f>B3/(A3^1.4)</f>
+        <v>0.43329287377610815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" ref="A63:A71" si="9">B4/(A4^1.2)</f>
+        <v>2.8813584385125317</v>
+      </c>
+      <c r="B63">
+        <f>B4/(A4^1.3)</f>
+        <v>1.0702723060451058</v>
+      </c>
+      <c r="C63">
+        <f>B4/(A4^1.4)</f>
+        <v>0.39754957029173121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="9"/>
+        <v>2.892931815410551</v>
+      </c>
+      <c r="B64">
+        <f>B5/(A5^1.3)</f>
+        <v>1.0318725804024032</v>
+      </c>
+      <c r="C64">
+        <f>B5/(A5^1.4)</f>
+        <v>0.36805603800074776</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="9"/>
+        <v>2.9655792303112425</v>
+      </c>
+      <c r="B65">
+        <f>B6/(A6^1.3)</f>
+        <v>1.0277879752291212</v>
+      </c>
+      <c r="C65">
+        <f>B6/(A6^1.4)</f>
+        <v>0.35620296744346813</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="9"/>
+        <v>3.0196913434260773</v>
+      </c>
+      <c r="B66">
+        <f>B7/(A7^1.3)</f>
+        <v>1.0234474624730787</v>
+      </c>
+      <c r="C66">
+        <f>B7/(A7^1.4)</f>
+        <v>0.34687144787923246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="9"/>
+        <v>3.0662051240876189</v>
+      </c>
+      <c r="B67">
+        <f>B8/(A8^1.3)</f>
+        <v>1.0204367244888084</v>
+      </c>
+      <c r="C67">
+        <f>B8/(A8^1.4)</f>
+        <v>0.33960255969348985</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="9"/>
+        <v>3.0840637664593835</v>
+      </c>
+      <c r="B68">
+        <f>B9/(A9^1.3)</f>
+        <v>1.010679705174877</v>
+      </c>
+      <c r="C68">
+        <f>B9/(A9^1.4)</f>
+        <v>0.33121022903656383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="9"/>
+        <v>3.1815295622356889</v>
+      </c>
+      <c r="B69">
+        <f>B10/(A10^1.3)</f>
+        <v>1.0287905450610282</v>
+      </c>
+      <c r="C69">
+        <f>B10/(A10^1.4)</f>
+        <v>0.33267331480120371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="9"/>
+        <v>3.1078481682866643</v>
+      </c>
+      <c r="B70">
+        <f>B11/(A11^1.3)</f>
+        <v>0.99319732812314809</v>
+      </c>
+      <c r="C70">
+        <f>B11/(A11^1.4)</f>
+        <v>0.31740319319871474</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="9"/>
+        <v>3.1007170000000013</v>
+      </c>
+      <c r="B71">
+        <f>B12/(A12^1.3)</f>
+        <v>0.98053280996043157</v>
+      </c>
+      <c r="C71">
+        <f>B12/(A12^1.4)</f>
+        <v>0.31007169999999984</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>AVERAGE(A62:A71)</f>
+        <v>3.0033817658929407</v>
+      </c>
+      <c r="B72">
+        <f>AVERAGE(B62:B71)</f>
+        <v>1.0275399927466</v>
+      </c>
+      <c r="C72">
+        <f>AVERAGE(C62:C71)</f>
+        <v>0.35329338941212601</v>
       </c>
     </row>
   </sheetData>

--- a/AnalisisDatos.xlsx
+++ b/AnalisisDatos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\INF\4º\ADA\adap1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Estudios\UVA\4o curso 1\ADA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA42451-6DFD-448A-939C-432FE2D6C43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835C4484-DDD8-4E20-98F7-E9AAF145C958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{C3DD8E36-B099-4B3E-878D-B4047BB6BD03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C3DD8E36-B099-4B3E-878D-B4047BB6BD03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -678,7 +678,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1324,7 +1324,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1856,7 +1856,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2492,7 +2492,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3024,7 +3024,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3662,7 +3662,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3742,16 +3742,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-GB"/>
@@ -4234,7 +4231,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4773,7 +4770,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10653,7 +10650,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10951,11 +10948,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62011B8E-48A5-41C4-869D-F6112BF86A8B}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
@@ -11885,141 +11882,141 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>3*(A3^1.2)</f>
+        <f t="shared" ref="A49:A58" si="9">3*(A3^1.2)</f>
         <v>189287.20334405801</v>
       </c>
       <c r="B49">
-        <f>1.0275*(A3^1.3)</f>
+        <f t="shared" ref="B49:B58" si="10">1.0275*(A3^1.3)</f>
         <v>162847.77552537972</v>
       </c>
       <c r="C49">
-        <f>0.3533*(A3^1.4)</f>
+        <f t="shared" ref="C49:C58" si="11">0.3533*(A3^1.4)</f>
         <v>140651.26335655054</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>3*(A4^1.2)</f>
+        <f t="shared" si="9"/>
         <v>434867.79820661678</v>
       </c>
       <c r="B50">
-        <f>1.0275*(A4^1.3)</f>
+        <f t="shared" si="10"/>
         <v>400978.25812743546</v>
       </c>
       <c r="C50">
-        <f>0.3533*(A4^1.4)</f>
+        <f t="shared" si="11"/>
         <v>371180.90931833972</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>3*(A5^1.2)</f>
+        <f t="shared" si="9"/>
         <v>707402.7770369607</v>
       </c>
       <c r="B51">
-        <f>1.0275*(A5^1.3)</f>
+        <f t="shared" si="10"/>
         <v>679265.35050157213</v>
       </c>
       <c r="C51">
-        <f>0.3533*(A5^1.4)</f>
+        <f t="shared" si="11"/>
         <v>654807.12151639897</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>3*(A6^1.2)</f>
+        <f t="shared" si="9"/>
         <v>999063.84888224653</v>
       </c>
       <c r="B52">
-        <f>1.0275*(A6^1.3)</f>
+        <f t="shared" si="10"/>
         <v>987324.28473273688</v>
       </c>
       <c r="C52">
-        <f>0.3533*(A6^1.4)</f>
+        <f t="shared" si="11"/>
         <v>979552.2923468512</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>3*(A7^1.2)</f>
+        <f t="shared" si="9"/>
         <v>1305825.8449441856</v>
       </c>
       <c r="B53">
-        <f>1.0275*(A7^1.3)</f>
+        <f t="shared" si="10"/>
         <v>1319601.608309743</v>
       </c>
       <c r="C53">
-        <f>0.3533*(A7^1.4)</f>
+        <f t="shared" si="11"/>
         <v>1338756.6573703072</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>3*(A8^1.2)</f>
+        <f t="shared" si="9"/>
         <v>1625184.8126053824</v>
       </c>
       <c r="B54">
-        <f>1.0275*(A8^1.3)</f>
+        <f t="shared" si="10"/>
         <v>1672547.4828975725</v>
       </c>
       <c r="C54">
-        <f>0.3533*(A8^1.4)</f>
+        <f t="shared" si="11"/>
         <v>1728046.353742633</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>3*(A9^1.2)</f>
+        <f t="shared" si="9"/>
         <v>1955414.821699155</v>
       </c>
       <c r="B55">
-        <f>1.0275*(A9^1.3)</f>
+        <f t="shared" si="10"/>
         <v>2043663.0016654094</v>
       </c>
       <c r="C55">
-        <f>0.3533*(A9^1.4)</f>
+        <f t="shared" si="11"/>
         <v>2144277.0305309533</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>3*(A10^1.2)</f>
+        <f t="shared" si="9"/>
         <v>2295245.9994960865</v>
       </c>
       <c r="B56">
-        <f>1.0275*(A10^1.3)</f>
+        <f t="shared" si="10"/>
         <v>2431077.5546169467</v>
       </c>
       <c r="C56">
-        <f>0.3533*(A10^1.4)</f>
+        <f t="shared" si="11"/>
         <v>2585053.9975347864</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>3*(A11^1.2)</f>
+        <f t="shared" si="9"/>
         <v>2643700.5783746336</v>
       </c>
       <c r="B57">
-        <f>1.0275*(A11^1.3)</f>
+        <f t="shared" si="10"/>
         <v>2833329.5613246765</v>
       </c>
       <c r="C57">
-        <f>0.3533*(A11^1.4)</f>
+        <f t="shared" si="11"/>
         <v>3048478.5998804444</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>3*(A12^1.2)</f>
+        <f t="shared" si="9"/>
         <v>2999999.9999999986</v>
       </c>
       <c r="B58">
-        <f>1.0275*(A12^1.3)</f>
+        <f t="shared" si="10"/>
         <v>3249240.2958230102</v>
       </c>
       <c r="C58">
-        <f>0.3533*(A12^1.4)</f>
+        <f t="shared" si="11"/>
         <v>3533000.0000000019</v>
       </c>
     </row>
@@ -12040,137 +12037,137 @@
         <v>2.7338932101996463</v>
       </c>
       <c r="B62">
-        <f>B3/(A3^1.3)</f>
+        <f t="shared" ref="B62:B71" si="12">B3/(A3^1.3)</f>
         <v>1.0883824905079968</v>
       </c>
       <c r="C62">
-        <f>B3/(A3^1.4)</f>
+        <f t="shared" ref="C62:C71" si="13">B3/(A3^1.4)</f>
         <v>0.43329287377610815</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" ref="A63:A71" si="9">B4/(A4^1.2)</f>
+        <f t="shared" ref="A63:A71" si="14">B4/(A4^1.2)</f>
         <v>2.8813584385125317</v>
       </c>
       <c r="B63">
-        <f>B4/(A4^1.3)</f>
+        <f t="shared" si="12"/>
         <v>1.0702723060451058</v>
       </c>
       <c r="C63">
-        <f>B4/(A4^1.4)</f>
+        <f t="shared" si="13"/>
         <v>0.39754957029173121</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.892931815410551</v>
       </c>
       <c r="B64">
-        <f>B5/(A5^1.3)</f>
+        <f t="shared" si="12"/>
         <v>1.0318725804024032</v>
       </c>
       <c r="C64">
-        <f>B5/(A5^1.4)</f>
+        <f t="shared" si="13"/>
         <v>0.36805603800074776</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.9655792303112425</v>
       </c>
       <c r="B65">
-        <f>B6/(A6^1.3)</f>
+        <f t="shared" si="12"/>
         <v>1.0277879752291212</v>
       </c>
       <c r="C65">
-        <f>B6/(A6^1.4)</f>
+        <f t="shared" si="13"/>
         <v>0.35620296744346813</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0196913434260773</v>
       </c>
       <c r="B66">
-        <f>B7/(A7^1.3)</f>
+        <f t="shared" si="12"/>
         <v>1.0234474624730787</v>
       </c>
       <c r="C66">
-        <f>B7/(A7^1.4)</f>
+        <f t="shared" si="13"/>
         <v>0.34687144787923246</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0662051240876189</v>
       </c>
       <c r="B67">
-        <f>B8/(A8^1.3)</f>
+        <f t="shared" si="12"/>
         <v>1.0204367244888084</v>
       </c>
       <c r="C67">
-        <f>B8/(A8^1.4)</f>
+        <f t="shared" si="13"/>
         <v>0.33960255969348985</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0840637664593835</v>
       </c>
       <c r="B68">
-        <f>B9/(A9^1.3)</f>
+        <f t="shared" si="12"/>
         <v>1.010679705174877</v>
       </c>
       <c r="C68">
-        <f>B9/(A9^1.4)</f>
+        <f t="shared" si="13"/>
         <v>0.33121022903656383</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.1815295622356889</v>
       </c>
       <c r="B69">
-        <f>B10/(A10^1.3)</f>
+        <f t="shared" si="12"/>
         <v>1.0287905450610282</v>
       </c>
       <c r="C69">
-        <f>B10/(A10^1.4)</f>
+        <f t="shared" si="13"/>
         <v>0.33267331480120371</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.1078481682866643</v>
       </c>
       <c r="B70">
-        <f>B11/(A11^1.3)</f>
+        <f t="shared" si="12"/>
         <v>0.99319732812314809</v>
       </c>
       <c r="C70">
-        <f>B11/(A11^1.4)</f>
+        <f t="shared" si="13"/>
         <v>0.31740319319871474</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.1007170000000013</v>
       </c>
       <c r="B71">
-        <f>B12/(A12^1.3)</f>
+        <f t="shared" si="12"/>
         <v>0.98053280996043157</v>
       </c>
       <c r="C71">
-        <f>B12/(A12^1.4)</f>
+        <f t="shared" si="13"/>
         <v>0.31007169999999984</v>
       </c>
     </row>

--- a/AnalisisDatos.xlsx
+++ b/AnalisisDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Estudios\UVA\4o curso 1\ADA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835C4484-DDD8-4E20-98F7-E9AAF145C958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F79F63-8229-412B-8FA0-C1BDB884A4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C3DD8E36-B099-4B3E-878D-B4047BB6BD03}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>ALGORITMO: 1</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Constante Tiempo</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Aprox (3 x n1.2)</t>
   </si>
   <si>
@@ -84,8 +81,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10946,10 +10952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62011B8E-48A5-41C4-869D-F6112BF86A8B}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11568,12 +11574,12 @@
         <v>0.91339690624212655</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -11596,7 +11602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10000</v>
       </c>
@@ -11613,15 +11619,16 @@
         <f>B35/(A35*LOG10(A35))</f>
         <v>3.1614749999999998</v>
       </c>
-      <c r="F35" t="s">
-        <v>10</v>
+      <c r="F35">
+        <f t="shared" ref="F35:F44" si="6">C35/(A35*LOG10(A35))</f>
+        <v>7.0148250000000001</v>
       </c>
       <c r="G35">
         <f>D35/(A35*LOG10(A35))</f>
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20000</v>
       </c>
@@ -11635,11 +11642,11 @@
         <v>2100000</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E44" si="6">B36/(A36*LOG10(A36))</f>
+        <f t="shared" ref="E36:E44" si="7">B36/(A36*LOG10(A36))</f>
         <v>3.1844232692652037</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F44" si="7">C36/(A36*LOG10(A36))</f>
+        <f t="shared" si="6"/>
         <v>7.0121226846603477</v>
       </c>
       <c r="G36">
@@ -11647,7 +11654,7 @@
         <v>24.412756968878192</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>30000</v>
       </c>
@@ -11661,11 +11668,11 @@
         <v>2800000</v>
       </c>
       <c r="E37">
+        <f t="shared" si="7"/>
+        <v>3.194664425253674</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="6"/>
-        <v>3.194664425253674</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="7"/>
         <v>6.9924917267610587</v>
       </c>
       <c r="G37">
@@ -11673,7 +11680,7 @@
         <v>20.846728963381057</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>40000</v>
       </c>
@@ -11687,11 +11694,11 @@
         <v>4100000</v>
       </c>
       <c r="E38">
+        <f t="shared" si="7"/>
+        <v>3.2044182448270631</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="6"/>
-        <v>3.2044182448270631</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="7"/>
         <v>7.0097630323787445</v>
       </c>
       <c r="G38">
@@ -11699,7 +11706,7 @@
         <v>22.272634470899796</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50000</v>
       </c>
@@ -11713,11 +11720,11 @@
         <v>5250000</v>
       </c>
       <c r="E39">
+        <f t="shared" si="7"/>
+        <v>3.2098225751775709</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="6"/>
-        <v>3.2098225751775709</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="7"/>
         <v>7.0116387143559979</v>
       </c>
       <c r="G39">
@@ -11725,7 +11732,7 @@
         <v>22.34532246494663</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>60000</v>
       </c>
@@ -11739,11 +11746,11 @@
         <v>6500000</v>
       </c>
       <c r="E40">
+        <f t="shared" si="7"/>
+        <v>3.2128221137343487</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="6"/>
-        <v>3.2128221137343487</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="7"/>
         <v>6.9914558126746416</v>
       </c>
       <c r="G40">
@@ -11751,7 +11758,7 @@
         <v>22.672646313704512</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>70000</v>
       </c>
@@ -11765,11 +11772,11 @@
         <v>8150000</v>
       </c>
       <c r="E41">
+        <f t="shared" si="7"/>
+        <v>3.2165116488888281</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="6"/>
-        <v>3.2165116488888281</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="7"/>
         <v>6.9901224478274777</v>
       </c>
       <c r="G41">
@@ -11777,7 +11784,7 @@
         <v>24.030178639734778</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>80000</v>
       </c>
@@ -11791,19 +11798,20 @@
         <v>8850000</v>
       </c>
       <c r="E42">
+        <f t="shared" si="7"/>
+        <v>3.2217234523348259</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="6"/>
-        <v>3.2217234523348259</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="7"/>
         <v>7.0076931264073208</v>
       </c>
       <c r="G42">
         <f t="shared" si="8"/>
         <v>22.562302607843566</v>
       </c>
+      <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>90000</v>
       </c>
@@ -11817,11 +11825,11 @@
         <v>10250000</v>
       </c>
       <c r="E43">
+        <f t="shared" si="7"/>
+        <v>3.224968851915555</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="6"/>
-        <v>3.224968851915555</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="7"/>
         <v>7.0125038042144974</v>
       </c>
       <c r="G43">
@@ -11829,7 +11837,7 @@
         <v>22.988153824100504</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>100000</v>
       </c>
@@ -11843,11 +11851,11 @@
         <v>11250000</v>
       </c>
       <c r="E44">
+        <f t="shared" si="7"/>
+        <v>3.2263980000000001</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="6"/>
-        <v>3.2263980000000001</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="7"/>
         <v>7.0094960000000004</v>
       </c>
       <c r="G44">
@@ -11855,29 +11863,29 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45">
         <f>AVERAGE(E35:E44)</f>
         <v>3.2057227581397072</v>
       </c>
       <c r="F45">
         <f>AVERAGE(F35:F44)</f>
-        <v>7.0041430388088983</v>
+        <v>7.0052112349280096</v>
       </c>
       <c r="G45">
         <f>AVERAGE(G35:G44)</f>
         <v>24.463072425348905</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>12</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -12187,6 +12195,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>